--- a/Amazon_Price_Intelligence_Full.xlsx
+++ b/Amazon_Price_Intelligence_Full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Nyx\Amazon_Price_Intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37017860-0AA8-4F0A-9F36-65D33E0E04B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B7D404-48C6-48CA-893D-A07EBF9D8552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2089,5 +2089,6 @@
   </sheetData>
   <autoFilter ref="A2:E62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>